--- a/comparative study, ramadan fasting.xlsx
+++ b/comparative study, ramadan fasting.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="portal vein doppler" sheetId="2" r:id="rId2"/>
     <sheet name="lab 1" sheetId="3" r:id="rId3"/>
     <sheet name="lab2" sheetId="7" r:id="rId4"/>
+    <sheet name="lab 3" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="213">
   <si>
     <t>name</t>
   </si>
@@ -422,9 +423,6 @@
     <t>samia kamal</t>
   </si>
   <si>
-    <t>sayied hassan</t>
-  </si>
-  <si>
     <t>saada moslem</t>
   </si>
   <si>
@@ -522,13 +520,169 @@
   </si>
   <si>
     <t>fatty liver,situs inversus</t>
+  </si>
+  <si>
+    <t>autoimmune anaemia</t>
+  </si>
+  <si>
+    <t>moderate ascites</t>
+  </si>
+  <si>
+    <t>mahmoud elbadry</t>
+  </si>
+  <si>
+    <t>DM</t>
+  </si>
+  <si>
+    <t>Mahmoud elbadry</t>
+  </si>
+  <si>
+    <t>hassan sallah</t>
+  </si>
+  <si>
+    <t>non hcv non hbv</t>
+  </si>
+  <si>
+    <t>azazy mohamed  sayed</t>
+  </si>
+  <si>
+    <t>sanna sayiedahmed</t>
+  </si>
+  <si>
+    <t>mild fatty liver</t>
+  </si>
+  <si>
+    <t>Gad mohamed</t>
+  </si>
+  <si>
+    <t>splenectomy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hcv </t>
+  </si>
+  <si>
+    <t>Hassan sallah</t>
+  </si>
+  <si>
+    <t>occult B</t>
+  </si>
+  <si>
+    <t>CLL</t>
+  </si>
+  <si>
+    <t>fatty liver, occult B</t>
+  </si>
+  <si>
+    <t>simple renal cyst</t>
+  </si>
+  <si>
+    <t>few splenic varices</t>
+  </si>
+  <si>
+    <t>endoscopy,varices</t>
+  </si>
+  <si>
+    <t>h pylori</t>
+  </si>
+  <si>
+    <t>moh elsanawy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> abelkafar moh</t>
+  </si>
+  <si>
+    <t>saleh hussien</t>
+  </si>
+  <si>
+    <t>Gad moh</t>
+  </si>
+  <si>
+    <t>GaDmoh</t>
+  </si>
+  <si>
+    <t>varices, multiple portahepatis collaterals</t>
+  </si>
+  <si>
+    <t>sodfa abdelaal</t>
+  </si>
+  <si>
+    <t>diabetic, h pylori +ve, OV grade i</t>
+  </si>
+  <si>
+    <t>splenic collaterals,nonfasting</t>
+  </si>
+  <si>
+    <t>salhya</t>
+  </si>
+  <si>
+    <t>student</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>unemployed</t>
+  </si>
+  <si>
+    <t>senayta</t>
+  </si>
+  <si>
+    <t>alawashra</t>
+  </si>
+  <si>
+    <t>smoker</t>
+  </si>
+  <si>
+    <t>samakeen</t>
+  </si>
+  <si>
+    <t>alhosinia</t>
+  </si>
+  <si>
+    <t>alkabaysha</t>
+  </si>
+  <si>
+    <t>worker</t>
+  </si>
+  <si>
+    <t>alhamadeen</t>
+  </si>
+  <si>
+    <t>kafr elhag omar</t>
+  </si>
+  <si>
+    <t>alnawafaa</t>
+  </si>
+  <si>
+    <t>tal eldabaa</t>
+  </si>
+  <si>
+    <t>driver</t>
+  </si>
+  <si>
+    <t>retired</t>
+  </si>
+  <si>
+    <t>alazazy</t>
+  </si>
+  <si>
+    <t>alsamanaa</t>
+  </si>
+  <si>
+    <t>carpenter</t>
+  </si>
+  <si>
+    <t>alzawya</t>
+  </si>
+  <si>
+    <t>alakhmeen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -546,6 +700,13 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -571,10 +732,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -876,10 +1038,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -912,7 +1074,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>128</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>58</v>
@@ -1038,7 +1200,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B7">
@@ -1182,7 +1344,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B13">
@@ -1258,7 +1420,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>168</v>
       </c>
       <c r="B16">
         <v>48</v>
@@ -1459,7 +1621,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B24">
@@ -1483,7 +1645,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>182</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
@@ -1629,7 +1791,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="A31" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B31">
@@ -1681,7 +1843,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="A33" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C33" t="s">
@@ -1762,8 +1924,17 @@
       <c r="C36" t="s">
         <v>18</v>
       </c>
+      <c r="D36" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" t="s">
+        <v>191</v>
+      </c>
       <c r="F36" t="s">
         <v>11</v>
+      </c>
+      <c r="G36" t="s">
+        <v>12</v>
       </c>
       <c r="H36">
         <v>214</v>
@@ -1793,6 +1964,552 @@
       </c>
       <c r="H37">
         <v>333</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>123</v>
+      </c>
+      <c r="B38">
+        <v>20</v>
+      </c>
+      <c r="C38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" t="s">
+        <v>192</v>
+      </c>
+      <c r="E38" t="s">
+        <v>191</v>
+      </c>
+      <c r="F38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B39">
+        <v>44</v>
+      </c>
+      <c r="C39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" t="s">
+        <v>199</v>
+      </c>
+      <c r="F39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>125</v>
+      </c>
+      <c r="B40">
+        <v>30</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" t="s">
+        <v>194</v>
+      </c>
+      <c r="E40" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>127</v>
+      </c>
+      <c r="B41">
+        <v>43</v>
+      </c>
+      <c r="C41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>128</v>
+      </c>
+      <c r="B42">
+        <v>38</v>
+      </c>
+      <c r="C42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" t="s">
+        <v>195</v>
+      </c>
+      <c r="F42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>130</v>
+      </c>
+      <c r="B43">
+        <v>37</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" t="s">
+        <v>196</v>
+      </c>
+      <c r="F43" t="s">
+        <v>197</v>
+      </c>
+      <c r="G43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44">
+        <v>65</v>
+      </c>
+      <c r="C44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>132</v>
+      </c>
+      <c r="B45">
+        <v>62</v>
+      </c>
+      <c r="C45" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>134</v>
+      </c>
+      <c r="B46">
+        <v>39</v>
+      </c>
+      <c r="C46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>136</v>
+      </c>
+      <c r="B47">
+        <v>64</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" t="s">
+        <v>198</v>
+      </c>
+      <c r="F47" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B48">
+        <v>76</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" t="s">
+        <v>200</v>
+      </c>
+      <c r="F48" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>138</v>
+      </c>
+      <c r="B49">
+        <v>65</v>
+      </c>
+      <c r="C49" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" t="s">
+        <v>204</v>
+      </c>
+      <c r="F49" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>139</v>
+      </c>
+      <c r="B50">
+        <v>59</v>
+      </c>
+      <c r="C50" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>141</v>
+      </c>
+      <c r="B51">
+        <v>41</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" t="s">
+        <v>203</v>
+      </c>
+      <c r="F51" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>144</v>
+      </c>
+      <c r="B52">
+        <v>52</v>
+      </c>
+      <c r="C52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" t="s">
+        <v>202</v>
+      </c>
+      <c r="F52" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>156</v>
+      </c>
+      <c r="B53">
+        <v>44</v>
+      </c>
+      <c r="C53" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" t="s">
+        <v>201</v>
+      </c>
+      <c r="E53" t="s">
+        <v>209</v>
+      </c>
+      <c r="F53" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>157</v>
+      </c>
+      <c r="B54">
+        <v>62</v>
+      </c>
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" t="s">
+        <v>210</v>
+      </c>
+      <c r="E54" t="s">
+        <v>211</v>
+      </c>
+      <c r="F54" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>159</v>
+      </c>
+      <c r="B55">
+        <v>38</v>
+      </c>
+      <c r="C55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" t="s">
+        <v>205</v>
+      </c>
+      <c r="F55" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B56">
+        <v>64</v>
+      </c>
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" t="s">
+        <v>65</v>
+      </c>
+      <c r="E56" t="s">
+        <v>212</v>
+      </c>
+      <c r="F56" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>166</v>
+      </c>
+      <c r="B57">
+        <v>31</v>
+      </c>
+      <c r="C57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" t="s">
+        <v>201</v>
+      </c>
+      <c r="E57" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>169</v>
+      </c>
+      <c r="B58">
+        <v>49</v>
+      </c>
+      <c r="C58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" t="s">
+        <v>29</v>
+      </c>
+      <c r="F58" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>171</v>
+      </c>
+      <c r="B59">
+        <v>58</v>
+      </c>
+      <c r="C59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" t="s">
+        <v>206</v>
+      </c>
+      <c r="E59" t="s">
+        <v>198</v>
+      </c>
+      <c r="F59" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>184</v>
+      </c>
+      <c r="B60">
+        <v>63</v>
+      </c>
+      <c r="C60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" t="s">
+        <v>207</v>
+      </c>
+      <c r="E60" t="s">
+        <v>208</v>
+      </c>
+      <c r="F60" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>188</v>
+      </c>
+      <c r="B61">
+        <v>47</v>
+      </c>
+      <c r="C61" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1803,10 +2520,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q55"/>
+  <dimension ref="A1:Q61"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1874,6 +2591,18 @@
       <c r="C2">
         <v>11</v>
       </c>
+      <c r="D2">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>0.09</v>
+      </c>
+      <c r="F2">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="G2" t="s">
+        <v>167</v>
+      </c>
       <c r="H2">
         <v>12.6</v>
       </c>
@@ -1894,6 +2623,15 @@
       </c>
       <c r="N2" t="s">
         <v>114</v>
+      </c>
+      <c r="O2">
+        <v>12</v>
+      </c>
+      <c r="P2">
+        <v>0.13</v>
+      </c>
+      <c r="Q2">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -2015,11 +2753,50 @@
       <c r="M5">
         <v>18.600000000000001</v>
       </c>
+      <c r="N5" t="s">
+        <v>162</v>
+      </c>
+      <c r="O5">
+        <v>12</v>
+      </c>
+      <c r="P5">
+        <v>0.09</v>
+      </c>
+      <c r="Q5">
+        <v>10.4</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>22</v>
       </c>
+      <c r="B6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>161</v>
+      </c>
+      <c r="H6">
+        <v>14.6</v>
+      </c>
+      <c r="I6">
+        <v>0.13</v>
+      </c>
+      <c r="J6">
+        <v>13.5</v>
+      </c>
+      <c r="K6">
+        <v>15.1</v>
+      </c>
+      <c r="L6">
+        <v>0.11</v>
+      </c>
+      <c r="M6">
+        <v>18.8</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -2066,6 +2843,15 @@
       <c r="G8" t="s">
         <v>115</v>
       </c>
+      <c r="O8">
+        <v>11.5</v>
+      </c>
+      <c r="P8">
+        <v>0.06</v>
+      </c>
+      <c r="Q8">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -2197,7 +2983,16 @@
         <v>118</v>
       </c>
       <c r="N13" t="s">
-        <v>119</v>
+        <v>187</v>
+      </c>
+      <c r="O13">
+        <v>11</v>
+      </c>
+      <c r="P13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q13">
+        <v>10.1</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -2245,16 +3040,40 @@
       <c r="G15" t="s">
         <v>120</v>
       </c>
+      <c r="N15" t="s">
+        <v>178</v>
+      </c>
+      <c r="O15">
+        <v>13.4</v>
+      </c>
+      <c r="P15">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="Q15">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>168</v>
       </c>
       <c r="B16" t="s">
         <v>96</v>
       </c>
       <c r="C16">
         <v>14</v>
+      </c>
+      <c r="D16">
+        <v>14.8</v>
+      </c>
+      <c r="E16">
+        <v>0.13</v>
+      </c>
+      <c r="F16">
+        <v>15.4</v>
+      </c>
+      <c r="G16" t="s">
+        <v>176</v>
       </c>
       <c r="H16">
         <v>14.9</v>
@@ -2504,6 +3323,18 @@
       <c r="M23">
         <v>15.6</v>
       </c>
+      <c r="N23" t="s">
+        <v>179</v>
+      </c>
+      <c r="O23">
+        <v>16</v>
+      </c>
+      <c r="P23">
+        <v>0.1</v>
+      </c>
+      <c r="Q23">
+        <v>15.4</v>
+      </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -2554,7 +3385,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>182</v>
       </c>
       <c r="B25" t="s">
         <v>105</v>
@@ -2572,7 +3403,16 @@
         <v>12.9</v>
       </c>
       <c r="G25" t="s">
-        <v>95</v>
+        <v>177</v>
+      </c>
+      <c r="O25">
+        <v>12</v>
+      </c>
+      <c r="P25">
+        <v>0.06</v>
+      </c>
+      <c r="Q25">
+        <v>11.6</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
@@ -2679,6 +3519,15 @@
       <c r="J28">
         <v>21.6</v>
       </c>
+      <c r="O28">
+        <v>13.8</v>
+      </c>
+      <c r="P28">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q28">
+        <v>22.2</v>
+      </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
@@ -2719,6 +3568,18 @@
       <c r="C30">
         <v>12</v>
       </c>
+      <c r="D30">
+        <v>12.5</v>
+      </c>
+      <c r="E30">
+        <v>0.09</v>
+      </c>
+      <c r="F30">
+        <v>12.4</v>
+      </c>
+      <c r="G30" t="s">
+        <v>175</v>
+      </c>
       <c r="H30">
         <v>13.1</v>
       </c>
@@ -2781,6 +3642,15 @@
       <c r="N31" t="s">
         <v>109</v>
       </c>
+      <c r="O31">
+        <v>14.6</v>
+      </c>
+      <c r="P31">
+        <v>0.01</v>
+      </c>
+      <c r="Q31">
+        <v>17.5</v>
+      </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -2810,8 +3680,20 @@
       <c r="M32">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N32">
+        <v>14.8</v>
+      </c>
+      <c r="O32">
+        <v>14.8</v>
+      </c>
+      <c r="P32">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Q32">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -2834,7 +3716,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>71</v>
       </c>
@@ -2878,7 +3760,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>72</v>
       </c>
@@ -2922,12 +3804,48 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36">
+        <v>10.7</v>
+      </c>
+      <c r="D36">
+        <v>15.8</v>
+      </c>
+      <c r="E36">
+        <v>0.1</v>
+      </c>
+      <c r="F36">
+        <v>12.4</v>
+      </c>
+      <c r="G36" t="s">
+        <v>181</v>
+      </c>
+      <c r="H36">
+        <v>11.8</v>
+      </c>
+      <c r="I36">
+        <v>0.08</v>
+      </c>
+      <c r="J36">
+        <v>14.3</v>
+      </c>
+      <c r="K36">
+        <v>10</v>
+      </c>
+      <c r="L36">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M36">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>75</v>
       </c>
@@ -2946,8 +3864,17 @@
       <c r="F37">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O37">
+        <v>14.9</v>
+      </c>
+      <c r="P37">
+        <v>0.1</v>
+      </c>
+      <c r="Q37">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>123</v>
       </c>
@@ -2964,7 +3891,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>124</v>
       </c>
@@ -2986,8 +3913,17 @@
       <c r="G39" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H39">
+        <v>17</v>
+      </c>
+      <c r="I39">
+        <v>0.19</v>
+      </c>
+      <c r="J39">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>125</v>
       </c>
@@ -3007,7 +3943,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>127</v>
       </c>
@@ -3045,9 +3981,9 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B42" t="s">
         <v>93</v>
@@ -3065,7 +4001,7 @@
         <v>14</v>
       </c>
       <c r="G42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H42">
         <v>12</v>
@@ -3085,10 +4021,19 @@
       <c r="M42">
         <v>26</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O42">
+        <v>11</v>
+      </c>
+      <c r="P42">
+        <v>0.06</v>
+      </c>
+      <c r="Q42">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B43" t="s">
         <v>93</v>
@@ -3124,9 +4069,9 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B44" t="s">
         <v>80</v>
@@ -3164,10 +4109,22 @@
       <c r="M44">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N44" t="s">
+        <v>180</v>
+      </c>
+      <c r="O44">
+        <v>12.8</v>
+      </c>
+      <c r="P44">
+        <v>0.11</v>
+      </c>
+      <c r="Q44">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B45" t="s">
         <v>116</v>
@@ -3185,15 +4142,15 @@
         <v>15.6</v>
       </c>
       <c r="G45" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="B46" t="s">
         <v>135</v>
-      </c>
-      <c r="B46" t="s">
-        <v>136</v>
       </c>
       <c r="C46">
         <v>15</v>
@@ -3226,9 +4183,9 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B47" t="s">
         <v>93</v>
@@ -3264,9 +4221,9 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B48" t="s">
         <v>80</v>
@@ -3275,7 +4232,16 @@
         <v>23</v>
       </c>
       <c r="G48" t="s">
-        <v>82</v>
+        <v>190</v>
+      </c>
+      <c r="H48">
+        <v>17.8</v>
+      </c>
+      <c r="I48">
+        <v>0.32</v>
+      </c>
+      <c r="J48">
+        <v>7.6</v>
       </c>
       <c r="K48">
         <v>16.5</v>
@@ -3287,9 +4253,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B49" t="s">
         <v>116</v>
@@ -3325,12 +4291,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>139</v>
+      </c>
+      <c r="B50" t="s">
         <v>140</v>
-      </c>
-      <c r="B50" t="s">
-        <v>141</v>
       </c>
       <c r="C50">
         <v>11</v>
@@ -3354,9 +4320,9 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B51" t="s">
         <v>116</v>
@@ -3374,7 +4340,7 @@
         <v>12.5</v>
       </c>
       <c r="H51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I51">
         <v>0.24</v>
@@ -3383,7 +4349,7 @@
         <v>8</v>
       </c>
       <c r="K51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L51">
         <v>0.13</v>
@@ -3392,9 +4358,9 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B52" t="s">
         <v>116</v>
@@ -3421,9 +4387,9 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B53" t="s">
         <v>93</v>
@@ -3444,17 +4410,17 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>159</v>
+      </c>
+      <c r="G55" t="s">
         <v>160</v>
-      </c>
-      <c r="G55" t="s">
-        <v>161</v>
       </c>
       <c r="H55">
         <v>11</v>
@@ -3473,6 +4439,168 @@
       </c>
       <c r="M55">
         <v>15.8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>163</v>
+      </c>
+      <c r="B56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56">
+        <v>13.6</v>
+      </c>
+      <c r="D56">
+        <v>15</v>
+      </c>
+      <c r="G56" t="s">
+        <v>164</v>
+      </c>
+      <c r="O56">
+        <v>15</v>
+      </c>
+      <c r="P56">
+        <v>0.2</v>
+      </c>
+      <c r="Q56">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>166</v>
+      </c>
+      <c r="B57" t="s">
+        <v>93</v>
+      </c>
+      <c r="C57">
+        <v>11</v>
+      </c>
+      <c r="G57" t="s">
+        <v>173</v>
+      </c>
+      <c r="H57">
+        <v>12.6</v>
+      </c>
+      <c r="I57">
+        <v>0.09</v>
+      </c>
+      <c r="J57">
+        <v>13.3</v>
+      </c>
+      <c r="K57">
+        <v>13</v>
+      </c>
+      <c r="L57">
+        <v>0.1</v>
+      </c>
+      <c r="M57">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>169</v>
+      </c>
+      <c r="B58" t="s">
+        <v>93</v>
+      </c>
+      <c r="C58">
+        <v>11</v>
+      </c>
+      <c r="D58">
+        <v>13.2</v>
+      </c>
+      <c r="E58">
+        <v>0.08</v>
+      </c>
+      <c r="F58">
+        <v>16.7</v>
+      </c>
+      <c r="G58" t="s">
+        <v>170</v>
+      </c>
+      <c r="O58">
+        <v>11.8</v>
+      </c>
+      <c r="P58">
+        <v>0.7</v>
+      </c>
+      <c r="Q58">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>171</v>
+      </c>
+      <c r="B59" t="s">
+        <v>116</v>
+      </c>
+      <c r="N59" t="s">
+        <v>172</v>
+      </c>
+      <c r="O59">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="P59">
+        <v>0.21</v>
+      </c>
+      <c r="Q59">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>184</v>
+      </c>
+      <c r="B60" t="s">
+        <v>116</v>
+      </c>
+      <c r="C60">
+        <v>10</v>
+      </c>
+      <c r="H60">
+        <v>13.5</v>
+      </c>
+      <c r="I60">
+        <v>0.16</v>
+      </c>
+      <c r="J60">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="K60">
+        <v>14</v>
+      </c>
+      <c r="L60">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M60">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>188</v>
+      </c>
+      <c r="B61" t="s">
+        <v>116</v>
+      </c>
+      <c r="C61">
+        <v>15</v>
+      </c>
+      <c r="D61">
+        <v>14.5</v>
+      </c>
+      <c r="E61">
+        <v>0.22</v>
+      </c>
+      <c r="F61">
+        <v>10.6</v>
+      </c>
+      <c r="G61" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -3483,10 +4611,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="P42" sqref="P42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3496,40 +4624,70 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" t="s">
         <v>146</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>147</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>148</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>149</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>150</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>151</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>152</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>153</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>154</v>
-      </c>
-      <c r="K1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B2">
+        <v>8.6</v>
+      </c>
+      <c r="C2">
+        <v>11.9</v>
+      </c>
+      <c r="D2">
+        <v>172</v>
+      </c>
+      <c r="E2">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0.82</v>
+      </c>
+      <c r="H2">
+        <v>4.3</v>
+      </c>
+      <c r="I2">
+        <v>0.4</v>
+      </c>
+      <c r="J2">
+        <v>17</v>
+      </c>
+      <c r="K2">
+        <v>28</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -3719,6 +4877,15 @@
       <c r="D8">
         <v>176</v>
       </c>
+      <c r="E8">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.78</v>
+      </c>
       <c r="H8">
         <v>4.4000000000000004</v>
       </c>
@@ -3873,6 +5040,36 @@
       <c r="A13" t="s">
         <v>36</v>
       </c>
+      <c r="B13">
+        <v>5.4</v>
+      </c>
+      <c r="C13">
+        <v>12.3</v>
+      </c>
+      <c r="D13">
+        <v>244</v>
+      </c>
+      <c r="E13">
+        <v>14.6</v>
+      </c>
+      <c r="F13">
+        <v>1.21</v>
+      </c>
+      <c r="G13">
+        <v>0.7</v>
+      </c>
+      <c r="H13">
+        <v>3.9</v>
+      </c>
+      <c r="I13">
+        <v>0.43</v>
+      </c>
+      <c r="J13">
+        <v>18</v>
+      </c>
+      <c r="K13">
+        <v>24</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -4510,6 +5707,36 @@
       <c r="A36" t="s">
         <v>74</v>
       </c>
+      <c r="B36">
+        <v>5.6</v>
+      </c>
+      <c r="C36">
+        <v>11.9</v>
+      </c>
+      <c r="D36">
+        <v>258</v>
+      </c>
+      <c r="E36">
+        <v>12</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.98</v>
+      </c>
+      <c r="H36">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I36">
+        <v>0.52</v>
+      </c>
+      <c r="J36">
+        <v>26</v>
+      </c>
+      <c r="K36">
+        <v>31</v>
+      </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
@@ -4592,17 +5819,17 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B44">
         <v>4</v>
@@ -4637,12 +5864,21 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>133</v>
+        <v>132</v>
+      </c>
+      <c r="B45">
+        <v>5.76</v>
+      </c>
+      <c r="C45">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D45">
+        <v>186</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B46">
         <v>6.1</v>
@@ -4677,7 +5913,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B47">
         <v>4.4000000000000004</v>
@@ -4712,12 +5948,30 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>138</v>
+        <v>137</v>
+      </c>
+      <c r="B48">
+        <v>3.7</v>
+      </c>
+      <c r="C48">
+        <v>12.8</v>
+      </c>
+      <c r="D48">
+        <v>40</v>
+      </c>
+      <c r="E48">
+        <v>13.6</v>
+      </c>
+      <c r="F48">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="I48">
+        <v>2.6</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B49">
         <v>6.8</v>
@@ -4752,12 +6006,12 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B51">
         <v>5</v>
@@ -4786,7 +6040,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B52">
         <v>8.6999999999999993</v>
@@ -4821,7 +6075,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B53">
         <v>5.6</v>
@@ -4856,7 +6110,159 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>158</v>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>165</v>
+      </c>
+      <c r="B56">
+        <v>5.7</v>
+      </c>
+      <c r="C56">
+        <v>12.5</v>
+      </c>
+      <c r="D56">
+        <v>106</v>
+      </c>
+      <c r="E56">
+        <v>13.8</v>
+      </c>
+      <c r="F56">
+        <v>1.21</v>
+      </c>
+      <c r="G56">
+        <v>0.96</v>
+      </c>
+      <c r="I56">
+        <v>0.8</v>
+      </c>
+      <c r="J56">
+        <v>46</v>
+      </c>
+      <c r="K56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>174</v>
+      </c>
+      <c r="B57">
+        <v>11.6</v>
+      </c>
+      <c r="C57">
+        <v>13.4</v>
+      </c>
+      <c r="D57">
+        <v>244</v>
+      </c>
+      <c r="E57">
+        <v>12.8</v>
+      </c>
+      <c r="F57">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G57">
+        <v>0.8</v>
+      </c>
+      <c r="H57">
+        <v>5.3</v>
+      </c>
+      <c r="I57">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J57">
+        <v>27</v>
+      </c>
+      <c r="K57">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>184</v>
+      </c>
+      <c r="B60">
+        <v>7.2</v>
+      </c>
+      <c r="C60">
+        <v>13</v>
+      </c>
+      <c r="D60">
+        <v>213</v>
+      </c>
+      <c r="E60">
+        <v>12</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>0.7</v>
+      </c>
+      <c r="H60">
+        <v>3.38</v>
+      </c>
+      <c r="I60">
+        <v>0.52</v>
+      </c>
+      <c r="J60">
+        <v>17</v>
+      </c>
+      <c r="K60">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>188</v>
+      </c>
+      <c r="B61">
+        <v>6.63</v>
+      </c>
+      <c r="C61">
+        <v>12.1</v>
+      </c>
+      <c r="D61">
+        <v>127</v>
+      </c>
+      <c r="E61">
+        <v>13.7</v>
+      </c>
+      <c r="F61">
+        <v>1.01</v>
+      </c>
+      <c r="G61">
+        <v>0.82</v>
+      </c>
+      <c r="H61">
+        <v>3.7</v>
+      </c>
+      <c r="I61">
+        <v>0.97</v>
+      </c>
+      <c r="J61">
+        <v>33</v>
+      </c>
+      <c r="K61">
+        <v>46.8</v>
       </c>
     </row>
   </sheetData>
@@ -4866,10 +6272,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A40" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="L55" sqref="L55"/>
+    <sheetView rightToLeft="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4879,34 +6285,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" t="s">
         <v>147</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>148</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>149</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>150</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>151</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>152</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>153</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>154</v>
-      </c>
-      <c r="K1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -4972,8 +6378,26 @@
       <c r="D6">
         <v>134</v>
       </c>
+      <c r="E6">
+        <v>14.8</v>
+      </c>
+      <c r="F6">
+        <v>1.3</v>
+      </c>
+      <c r="G6">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="H6">
+        <v>4.37</v>
+      </c>
       <c r="I6">
         <v>5.86</v>
+      </c>
+      <c r="J6">
+        <v>11.5</v>
+      </c>
+      <c r="K6">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -5015,6 +6439,36 @@
       <c r="A8" t="s">
         <v>28</v>
       </c>
+      <c r="B8">
+        <v>6.2</v>
+      </c>
+      <c r="C8">
+        <v>13.5</v>
+      </c>
+      <c r="D8">
+        <v>224</v>
+      </c>
+      <c r="E8">
+        <v>13.8</v>
+      </c>
+      <c r="F8">
+        <v>1.2</v>
+      </c>
+      <c r="G8">
+        <v>0.8</v>
+      </c>
+      <c r="H8">
+        <v>4.2</v>
+      </c>
+      <c r="I8">
+        <v>0.51</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="K8">
+        <v>19</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -5115,6 +6569,36 @@
       <c r="A13" t="s">
         <v>36</v>
       </c>
+      <c r="B13">
+        <v>6.26</v>
+      </c>
+      <c r="C13">
+        <v>11.9</v>
+      </c>
+      <c r="D13">
+        <v>241</v>
+      </c>
+      <c r="E13">
+        <v>13.1</v>
+      </c>
+      <c r="F13">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G13">
+        <v>1.2</v>
+      </c>
+      <c r="H13">
+        <v>3.83</v>
+      </c>
+      <c r="I13">
+        <v>0.5</v>
+      </c>
+      <c r="J13">
+        <v>19</v>
+      </c>
+      <c r="K13">
+        <v>17.5</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -5155,11 +6639,62 @@
       <c r="A15" t="s">
         <v>39</v>
       </c>
+      <c r="B15">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C15">
+        <v>12.7</v>
+      </c>
+      <c r="D15">
+        <v>90</v>
+      </c>
+      <c r="E15">
+        <v>15.9</v>
+      </c>
+      <c r="F15">
+        <v>1.32</v>
+      </c>
+      <c r="G15">
+        <v>0.7</v>
+      </c>
+      <c r="H15">
+        <v>3.9</v>
+      </c>
+      <c r="I15">
+        <v>1.8</v>
+      </c>
+      <c r="J15">
+        <v>27</v>
+      </c>
+      <c r="K15">
+        <v>23</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>41</v>
       </c>
+      <c r="B16">
+        <v>25.2</v>
+      </c>
+      <c r="C16">
+        <v>16.2</v>
+      </c>
+      <c r="D16">
+        <v>213</v>
+      </c>
+      <c r="G16">
+        <v>0.83</v>
+      </c>
+      <c r="I16">
+        <v>1.03</v>
+      </c>
+      <c r="J16">
+        <v>27</v>
+      </c>
+      <c r="K16">
+        <v>23</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -5279,6 +6814,27 @@
       <c r="D23">
         <v>38</v>
       </c>
+      <c r="E23">
+        <v>20.3</v>
+      </c>
+      <c r="F23">
+        <v>1.53</v>
+      </c>
+      <c r="G23">
+        <v>0.87</v>
+      </c>
+      <c r="H23">
+        <v>3.8</v>
+      </c>
+      <c r="I23">
+        <v>2.7</v>
+      </c>
+      <c r="J23">
+        <v>27</v>
+      </c>
+      <c r="K23">
+        <v>23</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -5319,6 +6875,18 @@
       <c r="A25" t="s">
         <v>57</v>
       </c>
+      <c r="B25">
+        <v>6.6</v>
+      </c>
+      <c r="C25">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="D25">
+        <v>120</v>
+      </c>
+      <c r="I25">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -5515,6 +7083,36 @@
       <c r="A36" t="s">
         <v>74</v>
       </c>
+      <c r="B36">
+        <v>5.5</v>
+      </c>
+      <c r="C36">
+        <v>12.1</v>
+      </c>
+      <c r="D36">
+        <v>258</v>
+      </c>
+      <c r="E36">
+        <v>13.5</v>
+      </c>
+      <c r="F36">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G36">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H36">
+        <v>4.2</v>
+      </c>
+      <c r="I36">
+        <v>0.62</v>
+      </c>
+      <c r="J36">
+        <v>32</v>
+      </c>
+      <c r="K36">
+        <v>35</v>
+      </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
@@ -5560,6 +7158,36 @@
       <c r="A39" t="s">
         <v>124</v>
       </c>
+      <c r="B39">
+        <v>1.57</v>
+      </c>
+      <c r="C39">
+        <v>11.3</v>
+      </c>
+      <c r="D39">
+        <v>110</v>
+      </c>
+      <c r="E39">
+        <v>18.5</v>
+      </c>
+      <c r="F39">
+        <v>1.7</v>
+      </c>
+      <c r="G39">
+        <v>0.9</v>
+      </c>
+      <c r="H39">
+        <v>2.5</v>
+      </c>
+      <c r="I39">
+        <v>1.9</v>
+      </c>
+      <c r="J39">
+        <v>28</v>
+      </c>
+      <c r="K39">
+        <v>33</v>
+      </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
@@ -5573,17 +7201,47 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>129</v>
+        <v>128</v>
+      </c>
+      <c r="B42">
+        <v>6.78</v>
+      </c>
+      <c r="C42">
+        <v>11.8</v>
+      </c>
+      <c r="D42">
+        <v>207</v>
+      </c>
+      <c r="E42">
+        <v>11.8</v>
+      </c>
+      <c r="F42">
+        <v>1.06</v>
+      </c>
+      <c r="G42">
+        <v>1.01</v>
+      </c>
+      <c r="H42">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I42">
+        <v>0.52</v>
+      </c>
+      <c r="J42">
+        <v>28</v>
+      </c>
+      <c r="K42">
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B44">
         <v>3.9</v>
@@ -5618,17 +7276,17 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B47">
         <v>8.6</v>
@@ -5663,7 +7321,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B48">
         <v>3.5</v>
@@ -5675,12 +7333,12 @@
         <v>33</v>
       </c>
       <c r="I48">
-        <v>2</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B49">
         <v>8.4</v>
@@ -5712,17 +7370,17 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B52">
         <v>7.5</v>
@@ -5757,17 +7415,17 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B55">
         <v>8.6</v>
@@ -5798,10 +7456,693 @@
       </c>
       <c r="K55">
         <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>163</v>
+      </c>
+      <c r="B56">
+        <v>6.9</v>
+      </c>
+      <c r="C56">
+        <v>11.4</v>
+      </c>
+      <c r="D56">
+        <v>148</v>
+      </c>
+      <c r="E56">
+        <v>14.4</v>
+      </c>
+      <c r="F56">
+        <v>1.45</v>
+      </c>
+      <c r="G56">
+        <v>1.2</v>
+      </c>
+      <c r="H56">
+        <v>3.8</v>
+      </c>
+      <c r="I56">
+        <v>0.6</v>
+      </c>
+      <c r="J56">
+        <v>36</v>
+      </c>
+      <c r="K56">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>174</v>
+      </c>
+      <c r="B57">
+        <v>12.6</v>
+      </c>
+      <c r="C57">
+        <v>14.6</v>
+      </c>
+      <c r="D57">
+        <v>248</v>
+      </c>
+      <c r="E57">
+        <v>13.5</v>
+      </c>
+      <c r="F57">
+        <v>1.08</v>
+      </c>
+      <c r="G57">
+        <v>0.99</v>
+      </c>
+      <c r="H57">
+        <v>4.17</v>
+      </c>
+      <c r="I57">
+        <v>0.53</v>
+      </c>
+      <c r="J57">
+        <v>14</v>
+      </c>
+      <c r="K57">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>184</v>
+      </c>
+      <c r="B60">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C60">
+        <v>13.5</v>
+      </c>
+      <c r="D60">
+        <v>166</v>
+      </c>
+      <c r="E60">
+        <v>12</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>1.18</v>
+      </c>
+      <c r="H60">
+        <v>4.3</v>
+      </c>
+      <c r="I60">
+        <v>0.87</v>
+      </c>
+      <c r="J60">
+        <v>50</v>
+      </c>
+      <c r="K60">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K61"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>5.6</v>
+      </c>
+      <c r="C2">
+        <v>13.1</v>
+      </c>
+      <c r="D2">
+        <v>204</v>
+      </c>
+      <c r="E2">
+        <v>12.7</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0.7</v>
+      </c>
+      <c r="H2">
+        <v>3.9</v>
+      </c>
+      <c r="I2">
+        <v>0.59</v>
+      </c>
+      <c r="J2">
+        <v>35</v>
+      </c>
+      <c r="K2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>6.8</v>
+      </c>
+      <c r="C5">
+        <v>10.4</v>
+      </c>
+      <c r="D5">
+        <v>239</v>
+      </c>
+      <c r="E5">
+        <v>19.3</v>
+      </c>
+      <c r="F5">
+        <v>1.46</v>
+      </c>
+      <c r="G5">
+        <v>0.94</v>
+      </c>
+      <c r="H5">
+        <v>3.47</v>
+      </c>
+      <c r="I5">
+        <v>0.5</v>
+      </c>
+      <c r="J5">
+        <v>16</v>
+      </c>
+      <c r="K5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10">
+        <v>7.3</v>
+      </c>
+      <c r="C10">
+        <v>10.3</v>
+      </c>
+      <c r="D10">
+        <v>46</v>
+      </c>
+      <c r="E10">
+        <v>19.3</v>
+      </c>
+      <c r="F10">
+        <v>1.81</v>
+      </c>
+      <c r="G10">
+        <v>0.7</v>
+      </c>
+      <c r="H10">
+        <v>2.19</v>
+      </c>
+      <c r="I10">
+        <v>6</v>
+      </c>
+      <c r="J10">
+        <v>48</v>
+      </c>
+      <c r="K10">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15">
+        <v>4.8</v>
+      </c>
+      <c r="C15">
+        <v>13.6</v>
+      </c>
+      <c r="D15">
+        <v>103</v>
+      </c>
+      <c r="E15">
+        <v>15.6</v>
+      </c>
+      <c r="F15">
+        <v>1.28</v>
+      </c>
+      <c r="G15">
+        <v>0.6</v>
+      </c>
+      <c r="H15">
+        <v>4.2</v>
+      </c>
+      <c r="I15">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="J15">
+        <v>23</v>
+      </c>
+      <c r="K15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28">
+        <v>6.43</v>
+      </c>
+      <c r="C28">
+        <v>12</v>
+      </c>
+      <c r="D28">
+        <v>247</v>
+      </c>
+      <c r="E28">
+        <v>12.3</v>
+      </c>
+      <c r="F28">
+        <v>1.04</v>
+      </c>
+      <c r="G28">
+        <v>0.8</v>
+      </c>
+      <c r="H28">
+        <v>3.9</v>
+      </c>
+      <c r="I28">
+        <v>0.9</v>
+      </c>
+      <c r="J28">
+        <v>17</v>
+      </c>
+      <c r="K28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31">
+        <v>2.8</v>
+      </c>
+      <c r="C31">
+        <v>6.3</v>
+      </c>
+      <c r="D31">
+        <v>74</v>
+      </c>
+      <c r="E31">
+        <v>14.6</v>
+      </c>
+      <c r="F31">
+        <v>1.19</v>
+      </c>
+      <c r="G31">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H31">
+        <v>3.6</v>
+      </c>
+      <c r="I31">
+        <v>0.37</v>
+      </c>
+      <c r="J31">
+        <v>11</v>
+      </c>
+      <c r="K31">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37">
+        <v>5.3</v>
+      </c>
+      <c r="C37">
+        <v>11</v>
+      </c>
+      <c r="D37">
+        <v>166</v>
+      </c>
+      <c r="E37">
+        <v>13.5</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.77</v>
+      </c>
+      <c r="H37">
+        <v>4.09</v>
+      </c>
+      <c r="I37">
+        <v>0.81</v>
+      </c>
+      <c r="J37">
+        <v>17</v>
+      </c>
+      <c r="K37">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44">
+        <v>3.8</v>
+      </c>
+      <c r="C44">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D44">
+        <v>87</v>
+      </c>
+      <c r="E44">
+        <v>14</v>
+      </c>
+      <c r="F44">
+        <v>1.2</v>
+      </c>
+      <c r="G44">
+        <v>0.72</v>
+      </c>
+      <c r="H44">
+        <v>3</v>
+      </c>
+      <c r="I44">
+        <v>0.96</v>
+      </c>
+      <c r="J44">
+        <v>28</v>
+      </c>
+      <c r="K44">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>